--- a/Species_list_v4.xlsx
+++ b/Species_list_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\R-dev\OneSTOP_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15BAF99-5313-493E-BA92-A0A2709CD577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F793B48-2C6D-4B66-86B2-92099E85BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="523">
   <si>
     <t>Synonyms</t>
   </si>
@@ -2088,7 +2088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7197,6 +7197,9 @@
       <c r="I116" s="1" t="s">
         <v>461</v>
       </c>
+      <c r="M116" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N116" s="5" t="s">
         <v>387</v>
       </c>
@@ -7226,6 +7229,9 @@
       <c r="I117" s="1" t="s">
         <v>462</v>
       </c>
+      <c r="M117" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N117" s="5" t="s">
         <v>387</v>
       </c>
@@ -7255,6 +7261,9 @@
       <c r="I118" s="1" t="s">
         <v>463</v>
       </c>
+      <c r="M118" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N118" s="5" t="s">
         <v>387</v>
       </c>
@@ -7284,6 +7293,9 @@
       <c r="I119" s="1" t="s">
         <v>464</v>
       </c>
+      <c r="M119" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N119" s="5" t="s">
         <v>387</v>
       </c>
@@ -7313,6 +7325,9 @@
       <c r="I120" s="1" t="s">
         <v>465</v>
       </c>
+      <c r="M120" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N120" s="5" t="s">
         <v>387</v>
       </c>
@@ -7342,6 +7357,9 @@
       <c r="I121" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="M121" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N121" s="5" t="s">
         <v>387</v>
       </c>
@@ -7371,6 +7389,9 @@
       <c r="I122" s="1" t="s">
         <v>467</v>
       </c>
+      <c r="M122" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N122" s="5" t="s">
         <v>387</v>
       </c>
@@ -7400,6 +7421,9 @@
       <c r="I123" s="1" t="s">
         <v>468</v>
       </c>
+      <c r="M123" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N123" s="5" t="s">
         <v>387</v>
       </c>
@@ -7429,6 +7453,9 @@
       <c r="I124" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="M124" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N124" s="5" t="s">
         <v>387</v>
       </c>
@@ -7458,6 +7485,9 @@
       <c r="I125" s="1" t="s">
         <v>470</v>
       </c>
+      <c r="M125" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N125" s="5" t="s">
         <v>387</v>
       </c>
@@ -7487,6 +7517,9 @@
       <c r="I126" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="M126" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N126" s="5" t="s">
         <v>387</v>
       </c>
@@ -7516,6 +7549,9 @@
       <c r="I127" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="M127" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N127" s="5" t="s">
         <v>387</v>
       </c>
@@ -7545,6 +7581,9 @@
       <c r="I128" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="M128" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N128" s="5" t="s">
         <v>387</v>
       </c>
@@ -7574,6 +7613,9 @@
       <c r="I129" s="1" t="s">
         <v>449</v>
       </c>
+      <c r="M129" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N129" s="5" t="s">
         <v>387</v>
       </c>
@@ -7603,6 +7645,9 @@
       <c r="I130" s="1" t="s">
         <v>450</v>
       </c>
+      <c r="M130" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N130" s="5" t="s">
         <v>387</v>
       </c>
@@ -7632,6 +7677,9 @@
       <c r="I131" s="1" t="s">
         <v>451</v>
       </c>
+      <c r="M131" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N131" s="5" t="s">
         <v>387</v>
       </c>
@@ -7661,6 +7709,9 @@
       <c r="I132" s="1" t="s">
         <v>452</v>
       </c>
+      <c r="M132" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N132" s="5" t="s">
         <v>387</v>
       </c>
@@ -7690,6 +7741,9 @@
       <c r="I133" s="1" t="s">
         <v>453</v>
       </c>
+      <c r="M133" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N133" s="5" t="s">
         <v>387</v>
       </c>
@@ -7719,6 +7773,9 @@
       <c r="I134" s="1" t="s">
         <v>414</v>
       </c>
+      <c r="M134" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N134" s="5" t="s">
         <v>387</v>
       </c>
@@ -7748,6 +7805,9 @@
       <c r="I135" s="1" t="s">
         <v>454</v>
       </c>
+      <c r="M135" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N135" s="5" t="s">
         <v>387</v>
       </c>
@@ -7777,6 +7837,9 @@
       <c r="I136" s="1" t="s">
         <v>471</v>
       </c>
+      <c r="M136" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N136" s="5" t="s">
         <v>387</v>
       </c>
@@ -7806,6 +7869,9 @@
       <c r="I137" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="M137" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N137" s="5" t="s">
         <v>387</v>
       </c>
@@ -7835,6 +7901,9 @@
       <c r="I138" s="1" t="s">
         <v>473</v>
       </c>
+      <c r="M138" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N138" s="5" t="s">
         <v>387</v>
       </c>
@@ -7864,6 +7933,9 @@
       <c r="I139" s="1" t="s">
         <v>474</v>
       </c>
+      <c r="M139" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N139" s="5" t="s">
         <v>387</v>
       </c>
@@ -7893,6 +7965,9 @@
       <c r="I140" s="1" t="s">
         <v>475</v>
       </c>
+      <c r="M140" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N140" s="5" t="s">
         <v>387</v>
       </c>
@@ -7922,6 +7997,9 @@
       <c r="I141" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="M141" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N141" s="5" t="s">
         <v>387</v>
       </c>
@@ -7951,6 +8029,9 @@
       <c r="I142" s="1" t="s">
         <v>477</v>
       </c>
+      <c r="M142" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N142" s="5" t="s">
         <v>387</v>
       </c>
@@ -7980,6 +8061,9 @@
       <c r="I143" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="M143" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N143" s="5" t="s">
         <v>387</v>
       </c>
@@ -8009,6 +8093,9 @@
       <c r="I144" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="M144" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N144" s="5" t="s">
         <v>387</v>
       </c>
@@ -8038,6 +8125,9 @@
       <c r="I145" s="1" t="s">
         <v>480</v>
       </c>
+      <c r="M145" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N145" s="5" t="s">
         <v>387</v>
       </c>
@@ -8067,6 +8157,9 @@
       <c r="I146" s="1" t="s">
         <v>499</v>
       </c>
+      <c r="M146" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N146" s="5" t="s">
         <v>387</v>
       </c>
@@ -8096,6 +8189,9 @@
       <c r="I147" s="1" t="s">
         <v>481</v>
       </c>
+      <c r="M147" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N147" s="5" t="s">
         <v>387</v>
       </c>
@@ -8125,6 +8221,9 @@
       <c r="I148" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="M148" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N148" s="5" t="s">
         <v>387</v>
       </c>
@@ -8154,6 +8253,9 @@
       <c r="I149" s="1" t="s">
         <v>483</v>
       </c>
+      <c r="M149" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N149" s="5" t="s">
         <v>387</v>
       </c>
@@ -8183,6 +8285,9 @@
       <c r="I150" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="M150" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N150" s="5" t="s">
         <v>387</v>
       </c>
@@ -8212,6 +8317,9 @@
       <c r="I151" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="M151" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N151" s="5" t="s">
         <v>387</v>
       </c>
@@ -8241,6 +8349,9 @@
       <c r="I152" s="1" t="s">
         <v>485</v>
       </c>
+      <c r="M152" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N152" s="5" t="s">
         <v>387</v>
       </c>
@@ -8270,6 +8381,9 @@
       <c r="I153" s="1" t="s">
         <v>486</v>
       </c>
+      <c r="M153" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N153" s="5" t="s">
         <v>387</v>
       </c>
@@ -8299,6 +8413,9 @@
       <c r="I154" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="M154" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N154" s="5" t="s">
         <v>387</v>
       </c>
@@ -8328,6 +8445,9 @@
       <c r="I155" s="1" t="s">
         <v>488</v>
       </c>
+      <c r="M155" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N155" s="5" t="s">
         <v>387</v>
       </c>
@@ -8357,6 +8477,9 @@
       <c r="I156" s="1" t="s">
         <v>489</v>
       </c>
+      <c r="M156" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N156" s="5" t="s">
         <v>387</v>
       </c>
@@ -8386,6 +8509,9 @@
       <c r="I157" s="1" t="s">
         <v>490</v>
       </c>
+      <c r="M157" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N157" s="5" t="s">
         <v>387</v>
       </c>
@@ -8415,6 +8541,9 @@
       <c r="I158" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="M158" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N158" s="5" t="s">
         <v>387</v>
       </c>
@@ -8444,6 +8573,9 @@
       <c r="I159" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="M159" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N159" s="5" t="s">
         <v>387</v>
       </c>
@@ -8473,6 +8605,9 @@
       <c r="I160" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="M160" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N160" s="5" t="s">
         <v>387</v>
       </c>
@@ -8502,6 +8637,9 @@
       <c r="I161" s="1" t="s">
         <v>494</v>
       </c>
+      <c r="M161" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N161" s="5" t="s">
         <v>387</v>
       </c>
@@ -8531,6 +8669,9 @@
       <c r="I162" s="1" t="s">
         <v>495</v>
       </c>
+      <c r="M162" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N162" s="5" t="s">
         <v>387</v>
       </c>
@@ -8560,6 +8701,9 @@
       <c r="I163" s="1" t="s">
         <v>496</v>
       </c>
+      <c r="M163" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N163" s="5" t="s">
         <v>387</v>
       </c>
@@ -8589,6 +8733,9 @@
       <c r="I164" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="M164" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="N164" s="5" t="s">
         <v>387</v>
       </c>
@@ -8623,7 +8770,9 @@
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
+      <c r="M165" s="8" t="s">
+        <v>387</v>
+      </c>
       <c r="N165" s="8" t="s">
         <v>387</v>
       </c>

--- a/Species_list_v4.xlsx
+++ b/Species_list_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\R-dev\OneSTOP_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F793B48-2C6D-4B66-86B2-92099E85BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A991B6-F785-421D-A6C7-D64A0D182688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Target Species" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Target Species'!$A$1:$L$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Target Species'!$A$1:$O$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="579">
   <si>
     <t>Synonyms</t>
   </si>
@@ -527,9 +527,6 @@
     <t>Trachemys scripta</t>
   </si>
   <si>
-    <t>Urva auropunctata</t>
-  </si>
-  <si>
     <t>Vespa velutina</t>
   </si>
   <si>
@@ -635,9 +632,6 @@
     <t>Parthenium hysterophorus</t>
   </si>
   <si>
-    <t>Pennisetum setaceum</t>
-  </si>
-  <si>
     <t>Persicaria perfoliata</t>
   </si>
   <si>
@@ -669,9 +663,6 @@
   </si>
   <si>
     <t>Bipalium kewense</t>
-  </si>
-  <si>
-    <t>Brachyponera chinensis</t>
   </si>
   <si>
     <t>Broussonetia papyrifera</t>
@@ -1226,9 +1217,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Reynoutria ×bohemica</t>
-  </si>
-  <si>
     <t>Alopochen aegyptiaca</t>
   </si>
   <si>
@@ -1250,382 +1238,562 @@
     <t>Alnus cordata</t>
   </si>
   <si>
-    <t>Apis florea </t>
-  </si>
-  <si>
     <t>Fagus orientalis</t>
   </si>
   <si>
     <t>Impatiens capensis</t>
   </si>
   <si>
-    <t>Isodontia mexicana </t>
-  </si>
-  <si>
     <t>Lindernia dubia</t>
   </si>
   <si>
-    <t>Orthriophis taeniurus</t>
-  </si>
-  <si>
     <t>Pachysandra terminalis</t>
   </si>
   <si>
-    <t>Pterocarya fraxinifolia </t>
-  </si>
-  <si>
     <t>Zizania latifolia</t>
   </si>
   <si>
     <t>Ehrharta erecta</t>
   </si>
   <si>
+    <t>Petasites pyrenaicus</t>
+  </si>
+  <si>
+    <t>Psittacula krameri</t>
+  </si>
+  <si>
+    <t>Australoplana sanguinea</t>
+  </si>
+  <si>
+    <t>Cortaderia selloana</t>
+  </si>
+  <si>
+    <t>Linepithema humile</t>
+  </si>
+  <si>
+    <t>Paulownia tomentosa</t>
+  </si>
+  <si>
+    <t>Alchemilla mollis</t>
+  </si>
+  <si>
+    <t>Ambrosia artemisiifolia</t>
+  </si>
+  <si>
+    <t>Buddleja davidii</t>
+  </si>
+  <si>
+    <t>Cornus sericea</t>
+  </si>
+  <si>
+    <t>Dendrolimus sibiricus</t>
+  </si>
+  <si>
+    <t>Polygraphus proximus</t>
+  </si>
+  <si>
+    <t>Spiraea alba</t>
+  </si>
+  <si>
+    <t>Symphytum officinale</t>
+  </si>
+  <si>
+    <t>Carpobrotus edulis</t>
+  </si>
+  <si>
+    <t>Tradescantia fluminensis</t>
+  </si>
+  <si>
+    <t>Acacia dealbata</t>
+  </si>
+  <si>
+    <t>Arundo donax</t>
+  </si>
+  <si>
+    <t>Robinia pseudoacacia</t>
+  </si>
+  <si>
+    <t>Acacia longifolia</t>
+  </si>
+  <si>
+    <t>Acacia melanoxylon</t>
+  </si>
+  <si>
+    <t>Baccharis spicata</t>
+  </si>
+  <si>
+    <t>Phytolacca americana</t>
+  </si>
+  <si>
+    <t>Elaeagnus angustifolia</t>
+  </si>
+  <si>
+    <t>Ambrosia tenuifolia</t>
+  </si>
+  <si>
+    <t>Ambrosia trifida</t>
+  </si>
+  <si>
+    <t>Amorpha fruticosa</t>
+  </si>
+  <si>
+    <t>Arion vulgaris</t>
+  </si>
+  <si>
+    <t>Corythucha arcuata</t>
+  </si>
+  <si>
+    <t>Metcalfa pruinosa</t>
+  </si>
+  <si>
+    <t>Varroa destructor</t>
+  </si>
+  <si>
+    <t>Panic veldtgrass</t>
+  </si>
+  <si>
+    <t>Variegated yellow archangel</t>
+  </si>
+  <si>
+    <t>Maidenhair vine</t>
+  </si>
+  <si>
+    <t>Winter heliotrope</t>
+  </si>
+  <si>
+    <t>Ring necked parakeet</t>
+  </si>
+  <si>
+    <t>Australian flatworm</t>
+  </si>
+  <si>
+    <t>Pampas grass</t>
+  </si>
+  <si>
+    <t>Argentine Ant</t>
+  </si>
+  <si>
+    <t>Oak processionary moth</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romenia</t>
+  </si>
+  <si>
+    <t>LL_Country</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Italian alder</t>
+  </si>
+  <si>
+    <t>Red dwarf honey bee</t>
+  </si>
+  <si>
+    <t>Oriental beech</t>
+  </si>
+  <si>
+    <t>Orange jewelweed</t>
+  </si>
+  <si>
+    <t>Mexican grass-carrying wasp</t>
+  </si>
+  <si>
+    <t>Yellowseed false pimpernel</t>
+  </si>
+  <si>
+    <t>Beauty ratsnake</t>
+  </si>
+  <si>
+    <t>Japanese spurge</t>
+  </si>
+  <si>
+    <t>Caucasian wingnut</t>
+  </si>
+  <si>
+    <t>Manchurian wild rice</t>
+  </si>
+  <si>
+    <t>emerald ash borer</t>
+  </si>
+  <si>
+    <t>lady’s mantle</t>
+  </si>
+  <si>
+    <t>common ragweed</t>
+  </si>
+  <si>
+    <t>butterfly bush</t>
+  </si>
+  <si>
+    <t>red-osier dogwood</t>
+  </si>
+  <si>
+    <t>Siberian silk moth</t>
+  </si>
+  <si>
+    <t>four-eyed fir bark beetle</t>
+  </si>
+  <si>
+    <t>Billard’s meadowsweet</t>
+  </si>
+  <si>
+    <t>white meadowsweet</t>
+  </si>
+  <si>
+    <t>common comfrey</t>
+  </si>
+  <si>
+    <t>small-leaf spiderwort</t>
+  </si>
+  <si>
+    <t>silver wattle</t>
+  </si>
+  <si>
+    <t>giant reed</t>
+  </si>
+  <si>
+    <t>black locust</t>
+  </si>
+  <si>
+    <t>Sydney golden wattle</t>
+  </si>
+  <si>
+    <t>Australian blackwood</t>
+  </si>
+  <si>
+    <t>narrow-leaved broom</t>
+  </si>
+  <si>
+    <t>American pokeweed</t>
+  </si>
+  <si>
+    <t>Russian olive</t>
+  </si>
+  <si>
+    <t>lacy ragweed</t>
+  </si>
+  <si>
+    <t>giant ragweed</t>
+  </si>
+  <si>
+    <t>false indigo-bush</t>
+  </si>
+  <si>
+    <t>Spanish slug</t>
+  </si>
+  <si>
+    <t>horse-chestnut leaf miner</t>
+  </si>
+  <si>
+    <t>oak lace bug</t>
+  </si>
+  <si>
+    <t>giant sumpweed</t>
+  </si>
+  <si>
+    <t>citrus flatid planthopper</t>
+  </si>
+  <si>
+    <t>varroa mite</t>
+  </si>
+  <si>
+    <t>Ice plant</t>
+  </si>
+  <si>
+    <t>Insect (bee)</t>
+  </si>
+  <si>
+    <t>Herbaceous plant</t>
+  </si>
+  <si>
+    <t>Insect (wasp)</t>
+  </si>
+  <si>
+    <t>Reptile (snake)</t>
+  </si>
+  <si>
+    <t>Evergreen groundcover</t>
+  </si>
+  <si>
+    <t>Aquatic grass</t>
+  </si>
+  <si>
+    <t>Woody vine</t>
+  </si>
+  <si>
+    <t>Bird (parakeet)</t>
+  </si>
+  <si>
+    <t>Flatworm (land planarian)</t>
+  </si>
+  <si>
+    <t>Insect (ant)</t>
+  </si>
+  <si>
+    <t>Insect (moth)</t>
+  </si>
+  <si>
+    <t>Insect (beetle)</t>
+  </si>
+  <si>
+    <t>Insect (bark beetle)</t>
+  </si>
+  <si>
+    <t>Succulent groundcover</t>
+  </si>
+  <si>
+    <t>Herbaceous vine</t>
+  </si>
+  <si>
+    <t>Gastropod (slug)</t>
+  </si>
+  <si>
+    <t>Insect (true bug)</t>
+  </si>
+  <si>
+    <t>Insect (planthopper)</t>
+  </si>
+  <si>
+    <t>Arachnid (mite)</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Tree/shrub</t>
+  </si>
+  <si>
+    <t>Shrub/tree</t>
+  </si>
+  <si>
+    <t>Alnus cordata (Loisel.) Duby</t>
+  </si>
+  <si>
+    <t>Apis florea Fabricius, 1787</t>
+  </si>
+  <si>
+    <t>Fagus orientalis Lipsky</t>
+  </si>
+  <si>
+    <t>Impatiens capensis Meerb.</t>
+  </si>
+  <si>
+    <t>Isodontia mexicana (de Saussure, 1867)</t>
+  </si>
+  <si>
+    <t>Lindernia dubia (L.) Pennell</t>
+  </si>
+  <si>
+    <t>Orthriophis taeniurus (Cope, 1861)</t>
+  </si>
+  <si>
+    <t>Pachysandra terminalis Siebold &amp; Zucc.</t>
+  </si>
+  <si>
+    <t>Pterocarya fraxinifolia (Poir.) Spach</t>
+  </si>
+  <si>
+    <t>Zizania latifolia (Griseb.) Hance ex F.Muell.</t>
+  </si>
+  <si>
+    <t>Ehrharta erecta Lam.</t>
+  </si>
+  <si>
+    <t>Muehlenbeckia complexa (A.Cunn.) Meisn.</t>
+  </si>
+  <si>
+    <t>Petasites pyrenaicus (L.) G.López</t>
+  </si>
+  <si>
+    <t>Psittacula krameri (Scopoli, 1769)</t>
+  </si>
+  <si>
+    <t>Australoplana sanguinea (Moseley, 1877)</t>
+  </si>
+  <si>
+    <t>Cortaderia selloana (Schult. &amp; Schult.f.) Asch. &amp; Graebn.</t>
+  </si>
+  <si>
+    <t>Linepithema humile (Mayr, 1868)</t>
+  </si>
+  <si>
+    <t>Paulownia tomentosa (Thunb.) Steud.</t>
+  </si>
+  <si>
+    <t>Agrilus planipennis Fairmaire, 1888</t>
+  </si>
+  <si>
+    <t>Alchemilla mollis (Buser) Rothm.</t>
+  </si>
+  <si>
+    <t>Ambrosia artemisiifolia L.</t>
+  </si>
+  <si>
+    <t>Buddleja davidii Franch.</t>
+  </si>
+  <si>
+    <t>Cornus sericea L.</t>
+  </si>
+  <si>
+    <t>Dendrolimus sibiricus Chetwerikov, 1908</t>
+  </si>
+  <si>
+    <t>Polygraphus proximus Blandford, 1894</t>
+  </si>
+  <si>
+    <t>Spiraea × billardii Hérincq</t>
+  </si>
+  <si>
+    <t>Spiraea alba Du Roi</t>
+  </si>
+  <si>
+    <t>Symphytum officinale L.</t>
+  </si>
+  <si>
+    <t>Carpobrotus edulis (L.) N.E.Br.</t>
+  </si>
+  <si>
+    <t>Tradescantia fluminensis Vell.</t>
+  </si>
+  <si>
+    <t>Acacia dealbata Link</t>
+  </si>
+  <si>
+    <t>Arundo donax L.</t>
+  </si>
+  <si>
+    <t>Robinia pseudoacacia L.</t>
+  </si>
+  <si>
+    <t>Acacia longifolia (Andrews) Willd.</t>
+  </si>
+  <si>
+    <t>Acacia melanoxylon R.Br.</t>
+  </si>
+  <si>
+    <t>Baccharis spicata (Lam.) Baill.</t>
+  </si>
+  <si>
+    <t>Phytolacca americana L.</t>
+  </si>
+  <si>
+    <t>Elaeagnus angustifolia L.</t>
+  </si>
+  <si>
+    <t>Ambrosia tenuifolia Spreng.</t>
+  </si>
+  <si>
+    <t>Ambrosia trifida L.</t>
+  </si>
+  <si>
+    <t>Amorpha fruticosa L.</t>
+  </si>
+  <si>
+    <t>Arion vulgaris Moquin-Tandon, 1855</t>
+  </si>
+  <si>
+    <t>Cameraria ohridella Deschka &amp; Dimić, 1986</t>
+  </si>
+  <si>
+    <t>Corythucha arcuata (Say, 1832)</t>
+  </si>
+  <si>
+    <t>Euphrosyne xanthiifolia (Nutt.) A.Gray</t>
+  </si>
+  <si>
+    <t>Metcalfa pruinosa (Say, 1830)</t>
+  </si>
+  <si>
+    <t>Varroa destructor Anderson &amp; Trueman, 2000</t>
+  </si>
+  <si>
+    <t>Thaumetopoea processionea</t>
+  </si>
+  <si>
+    <t>Thaumetopoea processionea (Linnaeus, 1758)</t>
+  </si>
+  <si>
+    <t>Spiraea × billardii</t>
+  </si>
+  <si>
+    <t>Reynoutria × bohemica</t>
+  </si>
+  <si>
+    <t>Lamium galeobdolon subsp. argentatum (Smejkal) J.Duvign.</t>
+  </si>
+  <si>
+    <t>Lamium galeobdolon subsp. argentatum</t>
+  </si>
+  <si>
+    <t>Cotula coronopifolia</t>
+  </si>
+  <si>
+    <t>Cotula coronopifolia L.</t>
+  </si>
+  <si>
+    <t>golden buttons</t>
+  </si>
+  <si>
+    <t>Pachycondyla chinensis</t>
+  </si>
+  <si>
+    <t>Pachycondyla chinensis (Emery, 1895)</t>
+  </si>
+  <si>
+    <t>Cenchrus setaceus (Forssk.) Morrone</t>
+  </si>
+  <si>
+    <t>Cenchrus setaceus</t>
+  </si>
+  <si>
+    <t>Herpestes javanicus (É.Geoffroy Saint-Hilaire, 1818)</t>
+  </si>
+  <si>
+    <t>Herpestes javanicus</t>
+  </si>
+  <si>
+    <t>Elaphe taeniura (Cope, 1861)</t>
+  </si>
+  <si>
+    <t>Elaphe taeniura</t>
+  </si>
+  <si>
+    <t>Cyclachaena xanthiifolia</t>
+  </si>
+  <si>
+    <t>Cyclachaena xanthiifolia (Nutt.) Fresen.</t>
+  </si>
+  <si>
     <t>Lamiastrum galeobdolan subsp. argentatum</t>
   </si>
   <si>
-    <t>Muehlenbeckia complexa </t>
-  </si>
-  <si>
-    <t>Petasites pyrenaicus</t>
-  </si>
-  <si>
-    <t>Psittacula krameri</t>
-  </si>
-  <si>
-    <t>Australoplana sanguinea</t>
-  </si>
-  <si>
-    <t>Cortaderia selloana</t>
-  </si>
-  <si>
-    <t>Linepithema humile</t>
-  </si>
-  <si>
-    <t>Paulownia tomentosa</t>
-  </si>
-  <si>
-    <t>Thaumatopoeia processionea</t>
-  </si>
-  <si>
-    <t>Agrilus planipennis </t>
-  </si>
-  <si>
-    <t>Alchemilla mollis</t>
-  </si>
-  <si>
-    <t>Ambrosia artemisiifolia</t>
-  </si>
-  <si>
-    <t>Buddleja davidii</t>
-  </si>
-  <si>
-    <t>Cornus sericea</t>
-  </si>
-  <si>
-    <t>Dendrolimus sibiricus</t>
-  </si>
-  <si>
-    <t>Polygraphus proximus</t>
-  </si>
-  <si>
-    <t>Spiraea ×billardii</t>
-  </si>
-  <si>
-    <t>Spiraea alba</t>
-  </si>
-  <si>
-    <t>Symphytum officinale</t>
-  </si>
-  <si>
-    <t>Carpobrotus edulis</t>
-  </si>
-  <si>
-    <t>Tradescantia fluminensis</t>
-  </si>
-  <si>
-    <t>Acacia dealbata</t>
-  </si>
-  <si>
-    <t>Arundo donax</t>
-  </si>
-  <si>
-    <t>Fallopia japonica</t>
-  </si>
-  <si>
-    <t>Robinia pseudoacacia</t>
-  </si>
-  <si>
-    <t>Acacia longifolia</t>
-  </si>
-  <si>
-    <t>Acacia melanoxylon</t>
-  </si>
-  <si>
-    <t>Baccharis spicata</t>
-  </si>
-  <si>
-    <t>Phytolacca americana</t>
-  </si>
-  <si>
-    <t>Elaeagnus angustifolia</t>
-  </si>
-  <si>
-    <t>Ambrosia tenuifolia</t>
-  </si>
-  <si>
-    <t>Ambrosia trifida</t>
-  </si>
-  <si>
-    <t>Amorpha fruticosa</t>
-  </si>
-  <si>
-    <t>Arion vulgaris</t>
-  </si>
-  <si>
-    <t>Cameraria ohridella </t>
-  </si>
-  <si>
-    <t>Corythucha arcuata</t>
-  </si>
-  <si>
-    <t>Euphrosyne xanthiifolia</t>
-  </si>
-  <si>
-    <t>Metcalfa pruinosa</t>
-  </si>
-  <si>
-    <t>Varroa destructor</t>
-  </si>
-  <si>
-    <t>Panic veldtgrass</t>
-  </si>
-  <si>
-    <t>Variegated yellow archangel</t>
-  </si>
-  <si>
-    <t>Maidenhair vine</t>
-  </si>
-  <si>
-    <t>Winter heliotrope</t>
-  </si>
-  <si>
-    <t>Ring necked parakeet</t>
-  </si>
-  <si>
-    <t>Australian flatworm</t>
-  </si>
-  <si>
-    <t>Pampas grass</t>
-  </si>
-  <si>
-    <t>Argentine Ant</t>
-  </si>
-  <si>
-    <t>Oak processionary moth</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romenia</t>
-  </si>
-  <si>
-    <t>LL_Country</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Italian alder</t>
-  </si>
-  <si>
-    <t>Red dwarf honey bee</t>
-  </si>
-  <si>
-    <t>Oriental beech</t>
-  </si>
-  <si>
-    <t>Orange jewelweed</t>
-  </si>
-  <si>
-    <t>Mexican grass-carrying wasp</t>
-  </si>
-  <si>
-    <t>Yellowseed false pimpernel</t>
-  </si>
-  <si>
-    <t>Beauty ratsnake</t>
-  </si>
-  <si>
-    <t>Japanese spurge</t>
-  </si>
-  <si>
-    <t>Caucasian wingnut</t>
-  </si>
-  <si>
-    <t>Manchurian wild rice</t>
-  </si>
-  <si>
-    <t>emerald ash borer</t>
-  </si>
-  <si>
-    <t>lady’s mantle</t>
-  </si>
-  <si>
-    <t>common ragweed</t>
-  </si>
-  <si>
-    <t>butterfly bush</t>
-  </si>
-  <si>
-    <t>red-osier dogwood</t>
-  </si>
-  <si>
-    <t>Siberian silk moth</t>
-  </si>
-  <si>
-    <t>four-eyed fir bark beetle</t>
-  </si>
-  <si>
-    <t>Billard’s meadowsweet</t>
-  </si>
-  <si>
-    <t>white meadowsweet</t>
-  </si>
-  <si>
-    <t>common comfrey</t>
-  </si>
-  <si>
-    <t>small-leaf spiderwort</t>
-  </si>
-  <si>
-    <t>silver wattle</t>
-  </si>
-  <si>
-    <t>giant reed</t>
-  </si>
-  <si>
-    <t>black locust</t>
-  </si>
-  <si>
-    <t>Sydney golden wattle</t>
-  </si>
-  <si>
-    <t>Australian blackwood</t>
-  </si>
-  <si>
-    <t>narrow-leaved broom</t>
-  </si>
-  <si>
-    <t>American pokeweed</t>
-  </si>
-  <si>
-    <t>Russian olive</t>
-  </si>
-  <si>
-    <t>lacy ragweed</t>
-  </si>
-  <si>
-    <t>giant ragweed</t>
-  </si>
-  <si>
-    <t>false indigo-bush</t>
-  </si>
-  <si>
-    <t>Spanish slug</t>
-  </si>
-  <si>
-    <t>horse-chestnut leaf miner</t>
-  </si>
-  <si>
-    <t>oak lace bug</t>
-  </si>
-  <si>
-    <t>giant sumpweed</t>
-  </si>
-  <si>
-    <t>citrus flatid planthopper</t>
-  </si>
-  <si>
-    <t>varroa mite</t>
-  </si>
-  <si>
-    <t>Ice plant</t>
-  </si>
-  <si>
-    <t>Insect (bee)</t>
-  </si>
-  <si>
-    <t>Herbaceous plant</t>
-  </si>
-  <si>
-    <t>Insect (wasp)</t>
-  </si>
-  <si>
-    <t>Reptile (snake)</t>
-  </si>
-  <si>
-    <t>Evergreen groundcover</t>
-  </si>
-  <si>
-    <t>Aquatic grass</t>
-  </si>
-  <si>
-    <t>Woody vine</t>
-  </si>
-  <si>
-    <t>Bird (parakeet)</t>
-  </si>
-  <si>
-    <t>Flatworm (land planarian)</t>
-  </si>
-  <si>
-    <t>Insect (ant)</t>
-  </si>
-  <si>
-    <t>Insect (moth)</t>
-  </si>
-  <si>
-    <t>Insect (beetle)</t>
-  </si>
-  <si>
-    <t>Insect (bark beetle)</t>
-  </si>
-  <si>
-    <t>Succulent groundcover</t>
-  </si>
-  <si>
-    <t>Herbaceous vine</t>
-  </si>
-  <si>
-    <t>Herbaceous perennial</t>
-  </si>
-  <si>
-    <t>Gastropod (slug)</t>
-  </si>
-  <si>
-    <t>Insect (true bug)</t>
-  </si>
-  <si>
-    <t>Insect (planthopper)</t>
-  </si>
-  <si>
-    <t>Arachnid (mite)</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Tree/shrub</t>
-  </si>
-  <si>
-    <t>Shrub/tree</t>
+    <t>Cameraria ohridella</t>
+  </si>
+  <si>
+    <t>Apis florea</t>
+  </si>
+  <si>
+    <t>Isodontia mexicana</t>
+  </si>
+  <si>
+    <t>Pterocarya fraxinifolia</t>
+  </si>
+  <si>
+    <t>Muehlenbeckia complexa</t>
+  </si>
+  <si>
+    <t>Agrilus planipennis</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1712,12 +1880,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1747,6 +1986,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2087,8 +2350,8 @@
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K155" sqref="K155"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2110,13 +2373,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>119</v>
@@ -2125,34 +2388,34 @@
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2166,19 +2429,19 @@
         <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J2" s="5">
         <v>32260</v>
@@ -2190,18 +2453,18 @@
         <v>18058</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2210,19 +2473,19 @@
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J3" s="5">
         <v>19273</v>
@@ -2234,13 +2497,13 @@
         <v>15818</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,19 +2517,19 @@
         <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J4" s="5">
         <v>173520</v>
@@ -2278,18 +2541,18 @@
         <v>145627</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2304,13 +2567,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J5" s="5">
         <v>2879246</v>
@@ -2322,18 +2585,18 @@
         <v>2631439</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2342,19 +2605,19 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J6" s="5">
         <v>163717</v>
@@ -2366,18 +2629,18 @@
         <v>134660</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2386,19 +2649,19 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J7" s="5">
         <v>1847435</v>
@@ -2410,39 +2673,39 @@
         <v>1655585</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J8" s="5">
         <v>12066</v>
@@ -2454,18 +2717,18 @@
         <v>7231</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2480,13 +2743,13 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J9" s="5">
         <v>4909</v>
@@ -2498,18 +2761,18 @@
         <v>1541</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2518,19 +2781,19 @@
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J10" s="5">
         <v>94540</v>
@@ -2542,18 +2805,18 @@
         <v>89627</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2568,13 +2831,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J11" s="5">
         <v>5591</v>
@@ -2586,18 +2849,18 @@
         <v>5165</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -2606,19 +2869,19 @@
         <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J12" s="5">
         <v>36055</v>
@@ -2630,13 +2893,13 @@
         <v>32310</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2650,19 +2913,19 @@
         <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J13" s="5">
         <v>4199</v>
@@ -2674,13 +2937,13 @@
         <v>4128</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2691,22 +2954,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J14" s="5">
         <v>2900</v>
@@ -2718,13 +2984,13 @@
         <v>2835</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,19 +3004,19 @@
         <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J15" s="5">
         <v>52231</v>
@@ -2762,18 +3028,18 @@
         <v>39413</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2788,13 +3054,13 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J16" s="5">
         <v>8749</v>
@@ -2806,18 +3072,18 @@
         <v>8036</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -2832,13 +3098,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J17" s="5">
         <v>2426</v>
@@ -2850,18 +3116,18 @@
         <v>2144</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -2870,19 +3136,19 @@
         <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J18" s="5">
         <v>5726</v>
@@ -2894,13 +3160,13 @@
         <v>3177</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,19 +3180,19 @@
         <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J19" s="5">
         <v>80726</v>
@@ -2938,18 +3204,18 @@
         <v>75751</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -2958,19 +3224,19 @@
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J20" s="5">
         <v>35140</v>
@@ -2982,13 +3248,13 @@
         <v>30925</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3002,19 +3268,19 @@
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J21" s="5">
         <v>12448</v>
@@ -3026,18 +3292,18 @@
         <v>8844</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -3046,19 +3312,19 @@
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J22" s="5">
         <v>10909</v>
@@ -3070,18 +3336,18 @@
         <v>3668</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -3096,13 +3362,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J23" s="5">
         <v>1233783</v>
@@ -3114,13 +3380,13 @@
         <v>1213468</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,19 +3400,19 @@
         <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J24" s="5">
         <v>10011</v>
@@ -3158,18 +3424,18 @@
         <v>7293</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -3178,19 +3444,19 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J25" s="5">
         <v>11223</v>
@@ -3202,18 +3468,18 @@
         <v>3975</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -3222,19 +3488,19 @@
         <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J26" s="5">
         <v>17354</v>
@@ -3246,18 +3512,18 @@
         <v>16375</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
@@ -3266,19 +3532,19 @@
         <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J27" s="5">
         <v>10667</v>
@@ -3290,18 +3556,18 @@
         <v>5614</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
@@ -3310,19 +3576,19 @@
         <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J28" s="5">
         <v>205780</v>
@@ -3334,18 +3600,18 @@
         <v>164860</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -3354,19 +3620,19 @@
         <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="J29" s="5">
         <v>4545</v>
@@ -3378,18 +3644,18 @@
         <v>3881</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -3398,19 +3664,19 @@
         <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J30" s="5">
         <v>28168</v>
@@ -3422,18 +3688,18 @@
         <v>27562</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -3442,19 +3708,19 @@
         <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J31" s="5">
         <v>13812</v>
@@ -3466,18 +3732,18 @@
         <v>9885</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
@@ -3486,19 +3752,19 @@
         <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J32" s="5">
         <v>503292</v>
@@ -3510,18 +3776,18 @@
         <v>396981</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -3530,19 +3796,19 @@
         <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J33" s="5">
         <v>4351</v>
@@ -3554,18 +3820,18 @@
         <v>2429</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -3580,13 +3846,13 @@
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J34" s="5">
         <v>8053</v>
@@ -3598,18 +3864,18 @@
         <v>2217</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -3618,19 +3884,19 @@
         <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J35" s="5">
         <v>21404</v>
@@ -3642,18 +3908,18 @@
         <v>14441</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -3662,19 +3928,19 @@
         <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J36" s="5">
         <v>18981</v>
@@ -3686,18 +3952,18 @@
         <v>12446</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -3706,19 +3972,19 @@
         <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J37" s="5">
         <v>32045</v>
@@ -3730,18 +3996,18 @@
         <v>30474</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
@@ -3750,19 +4016,19 @@
         <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J38" s="5">
         <v>18838</v>
@@ -3774,18 +4040,18 @@
         <v>15649</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
@@ -3800,13 +4066,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J39" s="5">
         <v>118892</v>
@@ -3818,18 +4084,18 @@
         <v>110857</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
@@ -3844,13 +4110,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J40" s="5">
         <v>152372</v>
@@ -3862,18 +4128,18 @@
         <v>122918</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
@@ -3888,13 +4154,13 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J41" s="5">
         <v>6801</v>
@@ -3906,13 +4172,13 @@
         <v>5749</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3926,19 +4192,19 @@
         <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J42" s="5">
         <v>23338</v>
@@ -3950,18 +4216,18 @@
         <v>17113</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3</v>
@@ -3976,13 +4242,13 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J43" s="5">
         <v>43145</v>
@@ -3994,13 +4260,13 @@
         <v>27349</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4014,19 +4280,19 @@
         <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J44" s="5">
         <v>1372</v>
@@ -4038,18 +4304,18 @@
         <v>1375</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3</v>
@@ -4064,13 +4330,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J45" s="5">
         <v>1134968</v>
@@ -4082,18 +4348,18 @@
         <v>751181</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
@@ -4108,13 +4374,13 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J46" s="5">
         <v>2675018</v>
@@ -4126,18 +4392,18 @@
         <v>2395108</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
@@ -4146,19 +4412,19 @@
         <v>83</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J47" s="5">
         <v>27887</v>
@@ -4170,39 +4436,42 @@
         <v>19638</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J48" s="5">
         <v>5123</v>
@@ -4214,18 +4483,18 @@
         <v>1563</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
@@ -4234,19 +4503,19 @@
         <v>85</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="J49" s="5">
         <v>12026</v>
@@ -4258,13 +4527,13 @@
         <v>8835</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,19 +4547,19 @@
         <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J50" s="5">
         <v>1013</v>
@@ -4302,18 +4571,18 @@
         <v>1030</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
@@ -4328,13 +4597,13 @@
         <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J51" s="5">
         <v>137596</v>
@@ -4346,18 +4615,18 @@
         <v>129321</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3</v>
@@ -4366,19 +4635,19 @@
         <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J52" s="5">
         <v>20680</v>
@@ -4390,18 +4659,18 @@
         <v>17811</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3</v>
@@ -4410,19 +4679,19 @@
         <v>89</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J53" s="5">
         <v>20027</v>
@@ -4434,18 +4703,18 @@
         <v>11083</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3</v>
@@ -4460,13 +4729,13 @@
         <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J54" s="5">
         <v>1137844</v>
@@ -4478,13 +4747,13 @@
         <v>1118057</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,19 +4767,19 @@
         <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J55" s="5">
         <v>756609</v>
@@ -4522,13 +4791,13 @@
         <v>731829</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,19 +4811,19 @@
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J56" s="5">
         <v>17969</v>
@@ -4566,13 +4835,13 @@
         <v>11417</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,19 +4855,19 @@
         <v>115</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J57" s="5">
         <v>414318</v>
@@ -4610,13 +4879,13 @@
         <v>291563</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,19 +4899,19 @@
         <v>116</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J58" s="5">
         <v>28359</v>
@@ -4654,18 +4923,18 @@
         <v>17384</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>3</v>
@@ -4680,13 +4949,13 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J59" s="5">
         <v>513021</v>
@@ -4698,18 +4967,18 @@
         <v>432274</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>3</v>
@@ -4724,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J60" s="5">
         <v>95266</v>
@@ -4742,18 +5011,18 @@
         <v>90554</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3</v>
@@ -4768,13 +5037,13 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J61" s="5">
         <v>13380</v>
@@ -4786,18 +5055,18 @@
         <v>7478</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3</v>
@@ -4812,13 +5081,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J62" s="5">
         <v>20766</v>
@@ -4830,18 +5099,18 @@
         <v>14612</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>3</v>
@@ -4856,13 +5125,13 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J63" s="5">
         <v>530</v>
@@ -4874,18 +5143,18 @@
         <v>80</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>3</v>
@@ -4900,13 +5169,13 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J64" s="5">
         <v>19256</v>
@@ -4918,18 +5187,18 @@
         <v>12166</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>3</v>
@@ -4944,13 +5213,13 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J65" s="5">
         <v>352741</v>
@@ -4962,18 +5231,18 @@
         <v>271367</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3</v>
@@ -4988,13 +5257,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J66" s="5">
         <v>182753</v>
@@ -5006,18 +5275,18 @@
         <v>164473</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3</v>
@@ -5026,19 +5295,19 @@
         <v>92</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J67" s="5">
         <v>22802</v>
@@ -5050,39 +5319,42 @@
         <v>19447</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J68" s="5">
         <v>2444</v>
@@ -5094,13 +5366,13 @@
         <v>2210</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5114,19 +5386,19 @@
         <v>118</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J69" s="5">
         <v>3716</v>
@@ -5138,18 +5410,18 @@
         <v>3153</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
@@ -5158,19 +5430,19 @@
         <v>49</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J70" s="5">
         <v>176498</v>
@@ -5182,18 +5454,18 @@
         <v>166498</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
@@ -5202,19 +5474,19 @@
         <v>50</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J71" s="5">
         <v>12860</v>
@@ -5226,18 +5498,18 @@
         <v>7414</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
@@ -5246,19 +5518,19 @@
         <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J72" s="5">
         <v>37145</v>
@@ -5270,18 +5542,18 @@
         <v>23724</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
@@ -5296,13 +5568,13 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J73" s="5">
         <v>52858</v>
@@ -5314,13 +5586,13 @@
         <v>12825</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5334,19 +5606,19 @@
         <v>95</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J74" s="5">
         <v>1718</v>
@@ -5358,18 +5630,18 @@
         <v>1374</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>6</v>
@@ -5378,19 +5650,19 @@
         <v>58</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J75" s="5">
         <v>5955</v>
@@ -5402,18 +5674,18 @@
         <v>3763</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
@@ -5428,13 +5700,13 @@
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J76" s="5">
         <v>6425</v>
@@ -5446,13 +5718,13 @@
         <v>4265</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5466,19 +5738,19 @@
         <v>101</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J77" s="5">
         <v>7215</v>
@@ -5490,13 +5762,13 @@
         <v>4410</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5510,19 +5782,19 @@
         <v>102</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J78" s="5">
         <v>7757</v>
@@ -5534,13 +5806,13 @@
         <v>6550</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,19 +5826,19 @@
         <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J79" s="5">
         <v>22195</v>
@@ -5578,18 +5850,18 @@
         <v>17343</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
@@ -5598,19 +5870,19 @@
         <v>63</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J80" s="5">
         <v>102883</v>
@@ -5622,18 +5894,18 @@
         <v>38030</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -5648,13 +5920,13 @@
         <v>2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J81" s="5">
         <v>22469</v>
@@ -5666,13 +5938,13 @@
         <v>18753</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5686,19 +5958,19 @@
         <v>105</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J82" s="5">
         <v>1105</v>
@@ -5710,18 +5982,18 @@
         <v>438</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
@@ -5736,13 +6008,13 @@
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J83" s="5">
         <v>55394</v>
@@ -5754,18 +6026,18 @@
         <v>29907</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
@@ -5780,13 +6052,13 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J84" s="5">
         <v>6454</v>
@@ -5798,18 +6070,18 @@
         <v>3402</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
@@ -5824,13 +6096,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J85" s="5">
         <v>12234</v>
@@ -5842,18 +6114,18 @@
         <v>7617</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>6</v>
@@ -5868,13 +6140,13 @@
         <v>2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J86" s="5">
         <v>5786</v>
@@ -5886,18 +6158,18 @@
         <v>2950</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
@@ -5912,13 +6184,13 @@
         <v>2</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J87" s="5">
         <v>73741</v>
@@ -5930,18 +6202,18 @@
         <v>24401</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -5956,13 +6228,13 @@
         <v>2</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J88" s="5">
         <v>43245</v>
@@ -5974,18 +6246,18 @@
         <v>24204</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>6</v>
@@ -5994,19 +6266,19 @@
         <v>65</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J89" s="5">
         <v>1560</v>
@@ -6018,18 +6290,18 @@
         <v>1045</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>6</v>
@@ -6038,19 +6310,19 @@
         <v>71</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J90" s="5">
         <v>26542</v>
@@ -6062,18 +6334,18 @@
         <v>22674</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
@@ -6082,19 +6354,19 @@
         <v>74</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J91" s="5">
         <v>6186</v>
@@ -6106,18 +6378,18 @@
         <v>2797</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>6</v>
@@ -6132,13 +6404,13 @@
         <v>2</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J92" s="5">
         <v>194003</v>
@@ -6150,18 +6422,18 @@
         <v>80860</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
@@ -6176,13 +6448,13 @@
         <v>2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J93" s="5">
         <v>641</v>
@@ -6194,18 +6466,18 @@
         <v>334</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
@@ -6214,7 +6486,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>24</v>
@@ -6223,13 +6495,13 @@
         <v>2</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J94" s="5">
         <v>121518</v>
@@ -6241,18 +6513,18 @@
         <v>95081</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
@@ -6261,19 +6533,19 @@
         <v>76</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J95" s="5">
         <v>22706</v>
@@ -6285,18 +6557,18 @@
         <v>17383</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
@@ -6305,19 +6577,19 @@
         <v>77</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J96" s="5">
         <v>25584</v>
@@ -6329,13 +6601,13 @@
         <v>16745</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6349,19 +6621,19 @@
         <v>106</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J97" s="5">
         <v>574</v>
@@ -6373,13 +6645,13 @@
         <v>354</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,19 +6665,19 @@
         <v>107</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J98" s="5">
         <v>18126</v>
@@ -6417,13 +6689,13 @@
         <v>8440</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6437,19 +6709,19 @@
         <v>108</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J99" s="5">
         <v>92</v>
@@ -6461,18 +6733,18 @@
         <v>200</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
@@ -6487,13 +6759,13 @@
         <v>2</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J100" s="5">
         <v>12899</v>
@@ -6505,13 +6777,13 @@
         <v>3387</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,19 +6797,19 @@
         <v>109</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J101" s="5">
         <v>3446</v>
@@ -6549,18 +6821,18 @@
         <v>1396</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
@@ -6569,19 +6841,19 @@
         <v>81</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J102" s="5">
         <v>19841</v>
@@ -6593,18 +6865,18 @@
         <v>12877</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>6</v>
@@ -6613,19 +6885,19 @@
         <v>82</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J103" s="5">
         <v>4132</v>
@@ -6637,13 +6909,13 @@
         <v>2386</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6657,19 +6929,19 @@
         <v>110</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J104" s="5">
         <v>50</v>
@@ -6681,18 +6953,18 @@
         <v>47</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>6</v>
@@ -6707,13 +6979,13 @@
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J105" s="5">
         <v>105795</v>
@@ -6725,18 +6997,18 @@
         <v>69322</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
@@ -6751,13 +7023,13 @@
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J106" s="5">
         <v>1627</v>
@@ -6769,18 +7041,18 @@
         <v>1250</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>6</v>
@@ -6789,19 +7061,19 @@
         <v>86</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J107" s="5">
         <v>19893</v>
@@ -6813,18 +7085,18 @@
         <v>10499</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>6</v>
@@ -6839,13 +7111,13 @@
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J108" s="5">
         <v>3739</v>
@@ -6857,18 +7129,18 @@
         <v>2312</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>6</v>
@@ -6877,19 +7149,19 @@
         <v>87</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J109" s="5">
         <v>37145</v>
@@ -6901,18 +7173,18 @@
         <v>19358</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>6</v>
@@ -6927,13 +7199,13 @@
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J110" s="5">
         <v>70883</v>
@@ -6945,18 +7217,18 @@
         <v>56433</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
@@ -6971,13 +7243,13 @@
         <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J111" s="5">
         <v>371</v>
@@ -6989,18 +7261,18 @@
         <v>371</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
@@ -7015,13 +7287,13 @@
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J112" s="5">
         <v>94701</v>
@@ -7033,18 +7305,18 @@
         <v>67605</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
@@ -7053,19 +7325,19 @@
         <v>90</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J113" s="5">
         <v>1090</v>
@@ -7077,18 +7349,18 @@
         <v>1088</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>6</v>
@@ -7097,19 +7369,19 @@
         <v>91</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J114" s="5">
         <v>6622</v>
@@ -7121,18 +7393,18 @@
         <v>3791</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>6</v>
@@ -7141,20 +7413,20 @@
         <v>51</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J115" s="8">
         <v>5524</v>
@@ -7166,1622 +7438,1796 @@
         <v>2735</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O115" s="8" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C116" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="D116" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C117" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="D117" s="1" t="s">
-        <v>397</v>
+        <v>574</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C118" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="D119" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C120" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="D120" s="1" t="s">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="D122" s="1" t="s">
-        <v>402</v>
+        <v>569</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="D123" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="D124" s="1" t="s">
-        <v>404</v>
+        <v>576</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N124" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C125" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="D125" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="A126" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O126" s="5" t="s">
-        <v>520</v>
+      <c r="G126" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="O126" s="14" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>395</v>
+      <c r="A127" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C127" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D127" s="1" t="s">
-        <v>407</v>
+        <v>558</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O127" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O127" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>395</v>
+      <c r="A128" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C128" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="D128" s="1" t="s">
-        <v>408</v>
+        <v>577</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="M128" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O128" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O128" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>395</v>
+      <c r="A129" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D129" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O129" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O129" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>395</v>
+      <c r="A130" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O130" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O130" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O131" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O131" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>395</v>
+      <c r="A132" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D132" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O132" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O132" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>395</v>
+      <c r="A133" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="D133" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O133" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O133" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>395</v>
+      <c r="A134" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="D134" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O134" s="5" t="s">
-        <v>520</v>
+        <v>384</v>
+      </c>
+      <c r="O134" s="16" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="A135" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M135" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="N135" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O135" s="5" t="s">
-        <v>520</v>
+      <c r="G135" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="O135" s="18" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C136" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="D136" s="1" t="s">
-        <v>416</v>
+        <v>578</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N136" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="D137" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="D138" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C139" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="D139" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="D140" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="D142" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="D143" s="1" t="s">
-        <v>423</v>
+        <v>555</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="D144" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O144" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="D145" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F146" s="1" t="s">
+      <c r="A146" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="N146" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O146" s="5" t="s">
-        <v>457</v>
+      <c r="G146" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="N146" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="O146" s="14" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>395</v>
+      <c r="A147" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C147" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="D147" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O147" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O147" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>395</v>
+      <c r="A148" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C148" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="D148" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="M148" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O148" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O148" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>395</v>
+      <c r="A149" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C149" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="D149" s="1" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O149" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O149" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>395</v>
+      <c r="A150" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C150" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="D150" s="1" t="s">
-        <v>430</v>
+        <v>559</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>332</v>
+        <v>561</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O150" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O150" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>395</v>
+      <c r="A151" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="D151" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O151" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O151" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>395</v>
+      <c r="A152" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C152" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="D152" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O152" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O152" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>395</v>
+      <c r="A153" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="D153" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O153" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O153" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>395</v>
+      <c r="A154" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="D154" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M154" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N154" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O154" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
+      </c>
+      <c r="O154" s="16" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="A155" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M155" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="N155" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="O155" s="5" t="s">
-        <v>457</v>
+      <c r="G155" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="O155" s="18" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="D157" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C158" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="D158" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="D159" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C160" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="D160" s="1" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="D161" s="1" t="s">
-        <v>441</v>
+        <v>573</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C162" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="D162" s="1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C163" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="D163" s="1" t="s">
-        <v>443</v>
+        <v>570</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C164" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="D164" s="1" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="D165" s="6" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
       <c r="M165" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O165" s="8" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L115" xr:uid="{EFBD35CC-3D81-4529-821E-73F2D17B21F3}"/>
+  <autoFilter ref="A1:O165" xr:uid="{EFBD35CC-3D81-4529-821E-73F2D17B21F3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
     <sortCondition ref="B2:B116"/>
     <sortCondition ref="C2:C116"/>
